--- a/examples/Hypercars.xlsx
+++ b/examples/Hypercars.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\PycharmProjects\pythonProject\dtpy\examples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437307EE-FFBE-4FE6-B905-1E550808F4C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hyper Cars 2019" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Hyper Cars 2019" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Motor" vbProcedure="false">'Hyper Cars 2019'!$P$9:$R$13</definedName>
-    <definedName function="false" hidden="false" name="Origen" vbProcedure="false">'Hyper Cars 2019'!$P$16:$Q$21</definedName>
-    <definedName function="false" hidden="false" name="Tipo" vbProcedure="false">'Hyper Cars 2019'!$B$19:$D$20</definedName>
-    <definedName function="false" hidden="false" name="Transmision" vbProcedure="false">'Hyper Cars 2019'!$P$1:$Q$3</definedName>
+    <definedName name="Motor">'Hyper Cars 2019'!$P$9:$R$13</definedName>
+    <definedName name="Origen">'Hyper Cars 2019'!$P$16:$Q$21</definedName>
+    <definedName name="Tipo">'Hyper Cars 2019'!$B$19:$D$20</definedName>
+    <definedName name="Transmision">'Hyper Cars 2019'!$P$1:$Q$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,291 +34,259 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
-    <t xml:space="preserve">Hypercars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caballos de fuerza</t>
+    <t>Hypercars</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Caballos de fuerza</t>
   </si>
   <si>
     <t xml:space="preserve">   Transmision</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocidad maxima (km/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLaren F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25, 000, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inglés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superdeportivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automático</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugatti Chiron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3, 000, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamaño de cilindros con los que cuenta el vehiculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercedes-AMG ONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2, 653, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alemán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuantos caballos de fuerza tiene el superdeportivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McLaren Senna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1, 500, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de transmisión del superdeportivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koenigsegg Agera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2, 500, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sueco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocidad maxima en km/h que alcanza el superdeportivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superdeportivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porsche 918 Spyder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$900, 000</t>
+    <t>Transmision</t>
+  </si>
+  <si>
+    <t>Velocidad maxima (km/h)</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Complementos</t>
+  </si>
+  <si>
+    <t>Transmisión</t>
+  </si>
+  <si>
+    <t>McLaren F1</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>Aut</t>
+  </si>
+  <si>
+    <t>$25, 000, 000</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>Superdeportivos</t>
+  </si>
+  <si>
+    <t>Automático</t>
+  </si>
+  <si>
+    <t>Bugatti Chiron</t>
+  </si>
+  <si>
+    <t>V16</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>$3, 000, 000</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Tamaño de cilindros con los que cuenta el vehiculo</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Mercedes-AMG ONE</t>
+  </si>
+  <si>
+    <t>$2, 653, 000</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>Cuantos caballos de fuerza tiene el superdeportivo</t>
+  </si>
+  <si>
+    <t>McLaren Senna</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>$1, 500, 000</t>
+  </si>
+  <si>
+    <t>Tipo de transmisión del superdeportivo</t>
+  </si>
+  <si>
+    <t>Koenigsegg Agera</t>
+  </si>
+  <si>
+    <t>$2, 500, 000</t>
+  </si>
+  <si>
+    <t>Sueco</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Velocidad maxima en km/h que alcanza el superdeportivo</t>
+  </si>
+  <si>
+    <t>Superdeportivo</t>
+  </si>
+  <si>
+    <t>Porsche 918 Spyder</t>
+  </si>
+  <si>
+    <t>$900, 000</t>
   </si>
   <si>
     <t xml:space="preserve">Tipo </t>
   </si>
   <si>
-    <t xml:space="preserve">Que tipo de categoría es el vehículo, en este caso super deportivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferrari LaFerrari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2, 000, 000</t>
+    <t>Que tipo de categoría es el vehículo, en este caso super deportivo</t>
+  </si>
+  <si>
+    <t>Ferrari LaFerrari</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>$2, 000, 000</t>
   </si>
   <si>
     <t xml:space="preserve">País de origen del superdeportivo </t>
   </si>
   <si>
-    <t xml:space="preserve">Pagani Huayra BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$2, 550, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aston Martin Valkyrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3, 200, 000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Britanico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugatti Veyronre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palabras relacionadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caminos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por donde los automóviles se transportan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llantas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son necesarias para que los automóviles avancen de manera correcta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. ¿Un motor más grande tiene más caballos de fuerza?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son necesarios para que las llantas tengan firmeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. ¿El origen del auto influye en su precio?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son necesarias para alumbrar el camino de noche o días nublados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. ¿La transmisión del auto ingluye en su velocidad máxima?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frenos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son necesarios para detener el automóvil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espejos</t>
+    <t>Pagani Huayra BC</t>
+  </si>
+  <si>
+    <t>$2, 550, 000</t>
+  </si>
+  <si>
+    <t>Aston Martin Valkyrie</t>
+  </si>
+  <si>
+    <t>$3, 200, 000</t>
+  </si>
+  <si>
+    <t>Britanico</t>
+  </si>
+  <si>
+    <t>Bugatti Veyronre</t>
+  </si>
+  <si>
+    <t>Palabras relacionadas</t>
+  </si>
+  <si>
+    <t>Caminos</t>
+  </si>
+  <si>
+    <t>Por donde los automóviles se transportan</t>
+  </si>
+  <si>
+    <t>Llantas</t>
+  </si>
+  <si>
+    <t>Son necesarias para que los automóviles avancen de manera correcta</t>
+  </si>
+  <si>
+    <t>1. ¿Un motor más grande tiene más caballos de fuerza?</t>
+  </si>
+  <si>
+    <t>Rines</t>
+  </si>
+  <si>
+    <t>Son necesarios para que las llantas tengan firmeza</t>
+  </si>
+  <si>
+    <t>2. ¿El origen del auto influye en su precio?</t>
+  </si>
+  <si>
+    <t>Luces</t>
+  </si>
+  <si>
+    <t>Son necesarias para alumbrar el camino de noche o días nublados</t>
+  </si>
+  <si>
+    <t>3. ¿La transmisión del auto ingluye en su velocidad máxima?</t>
+  </si>
+  <si>
+    <t>Frenos</t>
+  </si>
+  <si>
+    <t>Son necesarios para detener el automóvil</t>
+  </si>
+  <si>
+    <t>Espejos</t>
   </si>
   <si>
     <t xml:space="preserve">Son necesarios para que el conductor tenga una visión clara del entorno </t>
   </si>
   <si>
-    <t xml:space="preserve">Componentes electrónicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estéreo, alarma, computadora, gps, espejos, puertas, ventanas, asientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Señalamientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son necesarios para la armonía vial, para validar nu reglamento de tránsito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es necesaria para poder manejar un automóvil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinturón de seguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indispensable para la seguridad de los pasajeros previniendo daños mortales en caso de un accidente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Británico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indispesable para que el automóvil pueda arrancar.</t>
+    <t>Componentes electrónicos</t>
+  </si>
+  <si>
+    <t>Estéreo, alarma, computadora, gps, espejos, puertas, ventanas, asientos</t>
+  </si>
+  <si>
+    <t>Señalamientos</t>
+  </si>
+  <si>
+    <t>Son necesarios para la armonía vial, para validar nu reglamento de tránsito</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Es necesaria para poder manejar un automóvil</t>
+  </si>
+  <si>
+    <t>Cinturón de seguridad</t>
+  </si>
+  <si>
+    <t>Indispensable para la seguridad de los pasajeros previniendo daños mortales en caso de un accidente.</t>
+  </si>
+  <si>
+    <t>Británico</t>
+  </si>
+  <si>
+    <t>Batería</t>
+  </si>
+  <si>
+    <t>Indispesable para que el automóvil pueda arrancar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -337,117 +310,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999"/>
+        <fgColor theme="4" tint="0.59987182226020086"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -506,15 +440,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -523,13 +475,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:rPr lang="en-US" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -552,6 +504,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -572,7 +525,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -580,12 +533,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -594,6 +554,7 @@
                     <a:ea typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -602,8 +563,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -687,9 +649,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1863-4F19-8096-40DCF1DAC475}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="0"/>
         <c:axId val="58542793"/>
         <c:axId val="27064413"/>
       </c:barChart>
@@ -707,7 +681,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -717,7 +691,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -726,6 +700,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="27064413"/>
@@ -746,7 +721,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -766,7 +741,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -775,6 +750,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="58542793"/>
@@ -790,25 +766,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -817,13 +801,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="es-MX" sz="1400" strike="noStrike" u="none">
+              <a:rPr lang="es-MX" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -846,6 +830,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -866,7 +851,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -874,12 +859,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -888,6 +880,7 @@
                     <a:ea typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -896,8 +889,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -943,6 +937,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9177-45E6-A998-AAB8B788FC90}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -960,7 +959,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -968,12 +967,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -982,6 +988,7 @@
                     <a:ea typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -990,8 +997,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1037,9 +1045,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9177-45E6-A998-AAB8B788FC90}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="0"/>
         <c:axId val="95219921"/>
         <c:axId val="19684486"/>
       </c:barChart>
@@ -1057,7 +1077,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1067,7 +1087,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1076,6 +1096,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="19684486"/>
@@ -1096,7 +1117,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1116,7 +1137,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1125,6 +1146,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95219921"/>
@@ -1152,7 +1174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+            <a:defRPr sz="900" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1161,30 +1183,39 @@
               <a:ea typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1193,13 +1224,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
+              <a:defRPr sz="1300" b="0" u="none" strike="noStrike">
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" lang="es-MX" sz="1400" strike="noStrike" u="none">
+              <a:rPr lang="es-MX" sz="1400" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1222,6 +1253,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1242,7 +1274,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="4472C4"/>
             </a:solidFill>
             <a:ln w="0">
               <a:noFill/>
@@ -1250,12 +1282,19 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1264,6 +1303,7 @@
                     <a:ea typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1272,8 +1312,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1319,6 +1360,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A4A-4F51-93EF-BFE725F150B2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1336,22 +1382,29 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a9d18e"/>
+              <a:srgbClr val="A9D18E"/>
             </a:solidFill>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="a9d18e"/>
+                <a:srgbClr val="A9D18E"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr sz="1000" b="0" u="none" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1360,6 +1413,7 @@
                     <a:ea typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1368,20 +1422,21 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="a9d18e"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="A9D18E"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1424,9 +1479,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A4A-4F51-93EF-BFE725F150B2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="0"/>
         <c:axId val="20447929"/>
         <c:axId val="24728945"/>
       </c:barChart>
@@ -1444,7 +1511,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1454,7 +1521,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1463,6 +1530,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="24728945"/>
@@ -1483,7 +1551,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1503,7 +1571,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr sz="900" b="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1512,6 +1580,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="20447929"/>
@@ -1539,7 +1608,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+            <a:defRPr sz="900" b="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1548,28 +1617,35 @@
               <a:ea typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1583,14 +1659,20 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="602280" y="7885440"/>
-        <a:ext cx="8395200" cy="3924000"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1613,14 +1695,20 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="608760" y="3566160"/>
-        <a:ext cx="8302680" cy="4154400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1643,14 +1731,20 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9842040" y="5598360"/>
-        <a:ext cx="7417440" cy="3810960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1664,56 +1758,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1743,7 +1837,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1767,7 +1861,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1827,47 +1921,46 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="18" style="0" width="10.71"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="54" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="28" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,42 +2002,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <f aca="false">IF(B2="V6",$P$10,IF(B2="V8",$P$11,IF(B2="V12",$P$12,$P$13)))</f>
+      <c r="C2" s="7">
+        <f>IF(B2="V6",$P$10,IF(B2="V8",$P$11,IF(B2="V12",$P$12,$P$13)))</f>
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>618</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="n">
-        <f aca="false">IF(E2="Aut",$P$2,$P$3)</f>
+      <c r="F2" s="7">
+        <f>IF(E2="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="7">
         <v>243</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I2" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9" t="n">
-        <f aca="false">IF(J2="Inglés",$P$17,IF(J2="Italiano",$P$18,IF(J2="Alemán",$P$19,IF(J2="Sueco",$P$20, IF(J2="Britanico",$P$21)))))</f>
+      <c r="K2" s="9">
+        <f>IF(J2="Inglés",$P$17,IF(J2="Italiano",$P$18,IF(J2="Alemán",$P$19,IF(J2="Sueco",$P$20, IF(J2="Britanico",$P$21)))))</f>
         <v>1</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -1953,49 +2046,49 @@
       <c r="N2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="6">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <f aca="false">IF(B3="V6",$P$10,IF(B3="V8",$P$11,IF(B3="V12",$P$12,$P$13)))</f>
+      <c r="C3" s="7">
+        <f>IF(B3="V6",$P$10,IF(B3="V8",$P$11,IF(B3="V12",$P$12,$P$13)))</f>
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1579</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="n">
-        <f aca="false">IF(E3="Aut",$P$2,$P$3)</f>
+      <c r="F3" s="7">
+        <f>IF(E3="Aut",$P$2,$P$3)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>490</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I3" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="9" t="n">
-        <f aca="false">IF(J3="Inglés",$P$17,IF(J3="Italiano",$P$18,IF(J3="Alemán",$P$19,IF(J3="Sueco",$P$20, IF(J3="Britanico",$P$21)))))</f>
+      <c r="K3" s="9">
+        <f>IF(J3="Inglés",$P$17,IF(J3="Italiano",$P$18,IF(J3="Alemán",$P$19,IF(J3="Sueco",$P$20, IF(J3="Britanico",$P$21)))))</f>
         <v>2</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -2004,49 +2097,49 @@
       <c r="N3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="6">
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <f aca="false">IF(B4="V6",$P$10,IF(B4="V8",$P$11,IF(B4="V12",$P$12,$P$13)))</f>
+      <c r="C4" s="7">
+        <f>IF(B4="V6",$P$10,IF(B4="V8",$P$11,IF(B4="V12",$P$12,$P$13)))</f>
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>748</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <f aca="false">IF(E4="Aut",$P$2,$P$3)</f>
+      <c r="F4" s="7">
+        <f>IF(E4="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>217</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I4" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="n">
-        <f aca="false">IF(J4="Inglés",$P$17,IF(J4="Italiano",$P$18,IF(J4="Alemán",$P$19,IF(J4="Sueco",$P$20, IF(J4="Britanico",$P$21)))))</f>
+      <c r="K4" s="9">
+        <f>IF(J4="Inglés",$P$17,IF(J4="Italiano",$P$18,IF(J4="Alemán",$P$19,IF(J4="Sueco",$P$20, IF(J4="Britanico",$P$21)))))</f>
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -2056,42 +2149,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <f aca="false">IF(B5="V6",$P$10,IF(B5="V8",$P$11,IF(B5="V12",$P$12,$P$13)))</f>
+      <c r="C5" s="7">
+        <f>IF(B5="V6",$P$10,IF(B5="V8",$P$11,IF(B5="V12",$P$12,$P$13)))</f>
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>789</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <f aca="false">IF(E5="Aut",$P$2,$P$3)</f>
+      <c r="F5" s="7">
+        <f>IF(E5="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>335</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I5" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="9" t="n">
-        <f aca="false">IF(J5="Inglés",$P$17,IF(J5="Italiano",$P$18,IF(J5="Alemán",$P$19,IF(J5="Sueco",$P$20, IF(J5="Britanico",$P$21)))))</f>
+      <c r="K5" s="9">
+        <f>IF(J5="Inglés",$P$17,IF(J5="Italiano",$P$18,IF(J5="Alemán",$P$19,IF(J5="Sueco",$P$20, IF(J5="Britanico",$P$21)))))</f>
         <v>3</v>
       </c>
       <c r="M5" s="10" t="s">
@@ -2105,42 +2198,42 @@
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <f aca="false">IF(B6="V6",$P$10,IF(B6="V8",$P$11,IF(B6="V12",$P$12,$P$13)))</f>
+      <c r="C6" s="7">
+        <f>IF(B6="V6",$P$10,IF(B6="V8",$P$11,IF(B6="V12",$P$12,$P$13)))</f>
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>1016</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <f aca="false">IF(E6="Aut",$P$2,$P$3)</f>
+      <c r="F6" s="7">
+        <f>IF(E6="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>249</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I6" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="9" t="n">
-        <f aca="false">IF(J6="Inglés",$P$17,IF(J6="Italiano",$P$18,IF(J6="Alemán",$P$19,IF(J6="Sueco",$P$20, IF(J6="Britanico",$P$21)))))</f>
+      <c r="K6" s="9">
+        <f>IF(J6="Inglés",$P$17,IF(J6="Italiano",$P$18,IF(J6="Alemán",$P$19,IF(J6="Sueco",$P$20, IF(J6="Britanico",$P$21)))))</f>
         <v>4</v>
       </c>
       <c r="M6" s="10" t="s">
@@ -2149,49 +2242,49 @@
       <c r="N6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="6">
         <v>1</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <f aca="false">IF(B7="V6",$P$10,IF(B7="V8",$P$11,IF(B7="V12",$P$12,$P$13)))</f>
+      <c r="C7" s="7">
+        <f>IF(B7="V6",$P$10,IF(B7="V8",$P$11,IF(B7="V12",$P$12,$P$13)))</f>
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>810</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <f aca="false">IF(E7="Aut",$P$2,$P$3)</f>
+      <c r="F7" s="7">
+        <f>IF(E7="Aut",$P$2,$P$3)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="7">
         <v>211</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I7" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="9" t="n">
-        <f aca="false">IF(J7="Inglés",$P$17,IF(J7="Italiano",$P$18,IF(J7="Alemán",$P$19,IF(J7="Sueco",$P$20, IF(J7="Britanico",$P$21)))))</f>
+      <c r="K7" s="9">
+        <f>IF(J7="Inglés",$P$17,IF(J7="Italiano",$P$18,IF(J7="Alemán",$P$19,IF(J7="Sueco",$P$20, IF(J7="Britanico",$P$21)))))</f>
         <v>3</v>
       </c>
       <c r="M7" s="10" t="s">
@@ -2201,42 +2294,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <f aca="false">IF(B8="V6",$P$10,IF(B8="V8",$P$11,IF(B8="V12",$P$12,$P$13)))</f>
+      <c r="C8" s="7">
+        <f>IF(B8="V6",$P$10,IF(B8="V8",$P$11,IF(B8="V12",$P$12,$P$13)))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="n">
-        <f aca="false">IF(E8="Aut",$P$2,$P$3)</f>
+      <c r="F8" s="7">
+        <f>IF(E8="Aut",$P$2,$P$3)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>256</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I8" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="9" t="n">
-        <f aca="false">IF(J8="Inglés",$P$17,IF(J8="Italiano",$P$18,IF(J8="Alemán",$P$19,IF(J8="Sueco",$P$20, IF(J8="Britanico",$P$21)))))</f>
+      <c r="K8" s="9">
+        <f>IF(J8="Inglés",$P$17,IF(J8="Italiano",$P$18,IF(J8="Alemán",$P$19,IF(J8="Sueco",$P$20, IF(J8="Britanico",$P$21)))))</f>
         <v>2</v>
       </c>
       <c r="M8" s="10" t="s">
@@ -2246,42 +2339,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <f aca="false">IF(B9="V6",$P$10,IF(B9="V8",$P$11,IF(B9="V12",$P$12,$P$13)))</f>
+      <c r="C9" s="7">
+        <f>IF(B9="V6",$P$10,IF(B9="V8",$P$11,IF(B9="V12",$P$12,$P$13)))</f>
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>745</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <f aca="false">IF(E9="Aut",$P$2,$P$3)</f>
+      <c r="F9" s="7">
+        <f>IF(E9="Aut",$P$2,$P$3)</f>
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="7">
         <v>230</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I9" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="9" t="n">
-        <f aca="false">IF(J9="Inglés",$P$17,IF(J9="Italiano",$P$18,IF(J9="Alemán",$P$19,IF(J9="Sueco",$P$20, IF(J9="Britanico",$P$21)))))</f>
+      <c r="K9" s="9">
+        <f>IF(J9="Inglés",$P$17,IF(J9="Italiano",$P$18,IF(J9="Alemán",$P$19,IF(J9="Sueco",$P$20, IF(J9="Britanico",$P$21)))))</f>
         <v>2</v>
       </c>
       <c r="M9" s="3"/>
@@ -2291,132 +2384,132 @@
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <f aca="false">IF(B10="V6",$P$10,IF(B10="V8",$P$11,IF(B10="V12",$P$12,$P$13)))</f>
+      <c r="C10" s="7">
+        <f>IF(B10="V6",$P$10,IF(B10="V8",$P$11,IF(B10="V12",$P$12,$P$13)))</f>
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>750</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="n">
-        <f aca="false">IF(E10="Aut",$P$2,$P$3)</f>
+      <c r="F10" s="7">
+        <f>IF(E10="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>250</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I10" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="9" t="n">
-        <f aca="false">IF(J10="Inglés",$P$17,IF(J10="Italiano",$P$18,IF(J10="Alemán",$P$19,IF(J10="Sueco",$P$20, IF(J10="Britanico",$P$21)))))</f>
+      <c r="K10" s="9">
+        <f>IF(J10="Inglés",$P$17,IF(J10="Italiano",$P$18,IF(J10="Alemán",$P$19,IF(J10="Sueco",$P$20, IF(J10="Britanico",$P$21)))))</f>
         <v>5</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="6">
         <v>1</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <f aca="false">IF(B11="V6",$P$10,IF(B11="V8",$P$11,IF(B11="V12",$P$12,$P$13)))</f>
+      <c r="C11" s="7">
+        <f>IF(B11="V6",$P$10,IF(B11="V8",$P$11,IF(B11="V12",$P$12,$P$13)))</f>
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>987</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="7" t="n">
-        <f aca="false">IF(E11="Aut",$P$2,$P$3)</f>
+      <c r="F11" s="7">
+        <f>IF(E11="Aut",$P$2,$P$3)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="7">
         <v>267</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="7" t="n">
-        <f aca="false">$P$6</f>
+      <c r="I11" s="7">
+        <f>$P$6</f>
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="9" t="n">
-        <f aca="false">IF(J11="Inglés",$P$17,IF(J11="Italiano",$P$18,IF(J11="Alemán",$P$19,IF(J11="Sueco",$P$20, IF(J11="Britanico",$P$21)))))</f>
+      <c r="K11" s="9">
+        <f>IF(J11="Inglés",$P$17,IF(J11="Italiano",$P$18,IF(J11="Alemán",$P$19,IF(J11="Sueco",$P$20, IF(J11="Britanico",$P$21)))))</f>
         <v>2</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="6">
         <v>2</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="6">
         <v>3</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="M13" s="10" t="s">
         <v>57</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="6">
         <v>4</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
       <c r="M14" s="10" t="s">
@@ -2426,8 +2519,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
       <c r="M15" s="10" t="s">
@@ -2437,8 +2530,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="M16" s="10" t="s">
@@ -2451,77 +2544,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="13:17" ht="30" x14ac:dyDescent="0.25">
       <c r="M17" s="10" t="s">
         <v>68</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="6">
         <v>1</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="27.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="13:17" ht="30" x14ac:dyDescent="0.25">
       <c r="M18" s="10" t="s">
         <v>70</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="6">
         <v>2</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="13:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M19" s="10" t="s">
         <v>72</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="6">
         <v>3</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M20" s="10" t="s">
         <v>74</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="6">
         <v>4</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="13:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M21" s="10" t="s">
         <v>76</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="6">
         <v>5</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="10" t="s">
         <v>79</v>
       </c>
@@ -2529,1026 +2622,1013 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>